--- a/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <t>说明</t>
   </si>
   <si>
-    <t>制作材料</t>
-  </si>
-  <si>
-    <t>制作时间（分钟）</t>
+    <t>制作材料（id|数量）</t>
+  </si>
+  <si>
+    <t>制作时间（s）</t>
   </si>
   <si>
     <t>A</t>
@@ -180,8 +180,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -209,6 +209,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -216,15 +223,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,39 +290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,52 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -338,8 +314,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,19 +366,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,19 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,121 +510,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +576,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -590,32 +605,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,29 +631,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,16 +646,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +690,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,7 +1182,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
@@ -4,14 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
@@ -199,10 +196,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -220,45 +217,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,9 +242,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,50 +316,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,27 +334,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -385,187 +382,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,8 +594,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,13 +615,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,33 +656,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,16 +679,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,308 +909,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>石材</v>
-          </cell>
-          <cell r="B5">
-            <v>1001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>木材</v>
-          </cell>
-          <cell r="B6">
-            <v>1002</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>铁矿</v>
-          </cell>
-          <cell r="B7">
-            <v>1003</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>铁</v>
-          </cell>
-          <cell r="B8">
-            <v>1004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>钢</v>
-          </cell>
-          <cell r="B9">
-            <v>1005</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>硝石矿</v>
-          </cell>
-          <cell r="B10">
-            <v>1006</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>硝石</v>
-          </cell>
-          <cell r="B11">
-            <v>1007</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>火药</v>
-          </cell>
-          <cell r="B12">
-            <v>1008</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>兽皮</v>
-          </cell>
-          <cell r="B13">
-            <v>1009</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>皮革</v>
-          </cell>
-          <cell r="B14">
-            <v>1010</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>精皮革</v>
-          </cell>
-          <cell r="B15">
-            <v>1011</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>红水晶</v>
-          </cell>
-          <cell r="B16">
-            <v>1012</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>紫水晶</v>
-          </cell>
-          <cell r="B17">
-            <v>1013</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>黑水晶</v>
-          </cell>
-          <cell r="B18">
-            <v>1014</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>红宝石</v>
-          </cell>
-          <cell r="B19">
-            <v>1015</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>紫宝石</v>
-          </cell>
-          <cell r="B20">
-            <v>1016</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>黑宝石</v>
-          </cell>
-          <cell r="B21">
-            <v>1017</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>珊瑚</v>
-          </cell>
-          <cell r="B22">
-            <v>1018</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>珍珠</v>
-          </cell>
-          <cell r="B23">
-            <v>1019</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>琥珀</v>
-          </cell>
-          <cell r="B24">
-            <v>1020</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>人鱼眼泪</v>
-          </cell>
-          <cell r="B25">
-            <v>1021</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>神秘黏液</v>
-          </cell>
-          <cell r="B26">
-            <v>1022</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>巨蜥尾巴</v>
-          </cell>
-          <cell r="B27">
-            <v>1023</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>湛蓝羽毛</v>
-          </cell>
-          <cell r="B28">
-            <v>1024</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>鲷鱼</v>
-          </cell>
-          <cell r="B29">
-            <v>1025</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>银鲳</v>
-          </cell>
-          <cell r="B30">
-            <v>1026</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>鱿鱼</v>
-          </cell>
-          <cell r="B31">
-            <v>1027</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>金枪鱼</v>
-          </cell>
-          <cell r="B32">
-            <v>1028</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>鲨鱼</v>
-          </cell>
-          <cell r="B33">
-            <v>1029</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>大章鱼</v>
-          </cell>
-          <cell r="B34">
-            <v>1030</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>辣椒</v>
-          </cell>
-          <cell r="B35">
-            <v>1031</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>橘子</v>
-          </cell>
-          <cell r="B36">
-            <v>1032</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>土豆</v>
-          </cell>
-          <cell r="B37">
-            <v>1033</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>柠檬</v>
-          </cell>
-          <cell r="B38">
-            <v>1034</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>迷迭香</v>
-          </cell>
-          <cell r="B39">
-            <v>1035</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>番茄</v>
-          </cell>
-          <cell r="B40">
-            <v>1036</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1503,10 +1198,10 @@
   <sheetPr/>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1693,7 +1388,6 @@
         <v>22</v>
       </c>
       <c r="I5" s="2">
-        <f>VLOOKUP(H5,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J5" s="2">
@@ -1703,7 +1397,6 @@
         <v>23</v>
       </c>
       <c r="L5" s="2">
-        <f>VLOOKUP(K5,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1005</v>
       </c>
       <c r="M5" s="2">
@@ -1746,7 +1439,6 @@
         <v>22</v>
       </c>
       <c r="I6" s="2">
-        <f>VLOOKUP(H6,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J6" s="2">
@@ -1756,7 +1448,6 @@
         <v>27</v>
       </c>
       <c r="L6" s="2">
-        <f>VLOOKUP(K6,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1008</v>
       </c>
       <c r="M6" s="2">
@@ -1799,7 +1490,6 @@
         <v>22</v>
       </c>
       <c r="I7" s="2">
-        <f>VLOOKUP(H7,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J7" s="2">
@@ -1809,7 +1499,6 @@
         <v>30</v>
       </c>
       <c r="L7" s="2">
-        <f>VLOOKUP(K7,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1014</v>
       </c>
       <c r="M7" s="2">
@@ -1852,7 +1541,6 @@
         <v>33</v>
       </c>
       <c r="I8" s="2">
-        <f>VLOOKUP(H8,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1010</v>
       </c>
       <c r="J8" s="2">
@@ -1862,7 +1550,6 @@
         <v>34</v>
       </c>
       <c r="L8" s="2">
-        <f>VLOOKUP(K8,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1011</v>
       </c>
       <c r="M8" s="2">
@@ -1905,7 +1592,6 @@
         <v>33</v>
       </c>
       <c r="I9" s="2">
-        <f>VLOOKUP(H9,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1010</v>
       </c>
       <c r="J9" s="2">
@@ -1915,7 +1601,6 @@
         <v>34</v>
       </c>
       <c r="L9" s="2">
-        <f>VLOOKUP(K9,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1011</v>
       </c>
       <c r="M9" s="2">
@@ -1958,7 +1643,6 @@
         <v>33</v>
       </c>
       <c r="I10" s="2">
-        <f>VLOOKUP(H10,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1010</v>
       </c>
       <c r="J10" s="2">
@@ -1968,7 +1652,6 @@
         <v>34</v>
       </c>
       <c r="L10" s="2">
-        <f>VLOOKUP(K10,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1011</v>
       </c>
       <c r="M10" s="2">
@@ -2011,7 +1694,6 @@
         <v>22</v>
       </c>
       <c r="I11" s="2">
-        <f>VLOOKUP(H11,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J11" s="2">
@@ -2021,7 +1703,6 @@
         <v>41</v>
       </c>
       <c r="L11" s="2">
-        <f>VLOOKUP(K11,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1015</v>
       </c>
       <c r="M11" s="2">
@@ -2064,7 +1745,6 @@
         <v>22</v>
       </c>
       <c r="I12" s="2">
-        <f>VLOOKUP(H12,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J12" s="2">
@@ -2074,7 +1754,6 @@
         <v>44</v>
       </c>
       <c r="L12" s="2">
-        <f>VLOOKUP(K12,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1016</v>
       </c>
       <c r="M12" s="2">
@@ -2117,7 +1796,6 @@
         <v>22</v>
       </c>
       <c r="I13" s="2">
-        <f>VLOOKUP(H13,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J13" s="2">
@@ -2127,7 +1805,6 @@
         <v>47</v>
       </c>
       <c r="L13" s="2">
-        <f>VLOOKUP(K13,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1017</v>
       </c>
       <c r="M13" s="2">
@@ -2170,7 +1847,6 @@
         <v>22</v>
       </c>
       <c r="I14" s="2">
-        <f>VLOOKUP(H14,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J14" s="2">
@@ -2180,7 +1856,6 @@
         <v>50</v>
       </c>
       <c r="L14" s="2">
-        <f>VLOOKUP(K14,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1018</v>
       </c>
       <c r="M14" s="2">
@@ -2223,7 +1898,6 @@
         <v>22</v>
       </c>
       <c r="I15" s="2">
-        <f>VLOOKUP(H15,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J15" s="2">
@@ -2233,7 +1907,6 @@
         <v>53</v>
       </c>
       <c r="L15" s="2">
-        <f>VLOOKUP(K15,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1019</v>
       </c>
       <c r="M15" s="2">
@@ -2276,7 +1949,6 @@
         <v>22</v>
       </c>
       <c r="I16" s="2">
-        <f>VLOOKUP(H16,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1004</v>
       </c>
       <c r="J16" s="2">
@@ -2286,7 +1958,6 @@
         <v>56</v>
       </c>
       <c r="L16" s="2">
-        <f>VLOOKUP(K16,[1]Sheet1!$A$5:$B$40,2,FALSE)</f>
         <v>1020</v>
       </c>
       <c r="M16" s="2">

--- a/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -37,6 +37,9 @@
     <t>制作时间（s）</t>
   </si>
   <si>
+    <t>制作花费</t>
+  </si>
+  <si>
     <t>材料名称</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>MakeTime</t>
   </si>
   <si>
+    <t>MakeCost</t>
+  </si>
+  <si>
     <t>刀类1</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>钢</t>
-  </si>
-  <si>
-    <t>金币</t>
   </si>
   <si>
     <t>枪类1</t>
@@ -217,6 +220,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -233,6 +302,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -241,25 +317,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,40 +333,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,50 +357,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -382,13 +385,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,169 +547,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,11 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +624,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,17 +666,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,9 +683,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,143 +709,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1196,12 +1202,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1211,11 +1217,11 @@
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="28.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1243,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1247,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -1256,731 +1262,653 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:16">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="str">
-        <f>I5&amp;"|"&amp;J5&amp;";"&amp;L5&amp;"|"&amp;M5&amp;";"&amp;O5&amp;"|"&amp;P5</f>
-        <v>1004|10;1005|20;-1|10000</v>
+        <f>J5&amp;"|"&amp;K5&amp;";"&amp;M5&amp;"|"&amp;N5</f>
+        <v>1004|10;1005|20</v>
       </c>
       <c r="G5" s="2">
         <v>60</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2">
         <v>1004</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
         <v>1005</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>20</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" ref="F6:F16" si="0">I6&amp;"|"&amp;J6&amp;";"&amp;L6&amp;"|"&amp;M6&amp;";"&amp;O6&amp;"|"&amp;P6</f>
-        <v>1004|10;1008|20;-1|10000</v>
+        <f t="shared" ref="F6:F16" si="0">J6&amp;"|"&amp;K6&amp;";"&amp;M6&amp;"|"&amp;N6</f>
+        <v>1004|10;1008|20</v>
       </c>
       <c r="G6" s="2">
         <v>60</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2">
         <v>1004</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>10</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
         <v>1008</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>20</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1014|20;-1|10000</v>
+        <v>1004|10;1014|20</v>
       </c>
       <c r="G7" s="2">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2">
         <v>1004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>10</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
         <v>1014</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>20</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>1004</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010|10;1011|20;-1|10000</v>
+        <v>1010|10;1011|20</v>
       </c>
       <c r="G8" s="2">
         <v>60</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2">
         <v>1010</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>10</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
         <v>1011</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>20</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>1005</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010|10;1011|20;-1|10000</v>
+        <v>1010|10;1011|20</v>
       </c>
       <c r="G9" s="2">
         <v>60</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2">
         <v>1010</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>10</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="L9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="2">
         <v>1011</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>20</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>1006</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1010|10;1011|20;-1|10000</v>
+        <v>1010|10;1011|20</v>
       </c>
       <c r="G10" s="2">
         <v>60</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="2">
         <v>1010</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>10</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="L10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="2">
         <v>1011</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>20</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>1007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1015|20;-1|10000</v>
+        <v>1004|10;1015|20</v>
       </c>
       <c r="G11" s="2">
         <v>60</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2">
         <v>1004</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>10</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="2">
+      <c r="L11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="2">
         <v>1015</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>20</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>1008</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1016|20;-1|10000</v>
+        <v>1004|10;1016|20</v>
       </c>
       <c r="G12" s="2">
         <v>60</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2">
         <v>1004</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>10</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="L12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="2">
         <v>1016</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>20</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>1009</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1017|20;-1|10000</v>
+        <v>1004|10;1017|20</v>
       </c>
       <c r="G13" s="2">
         <v>60</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
         <v>1004</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>10</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="2">
+      <c r="L13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="2">
         <v>1017</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>20</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>1010</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1018|20;-1|10000</v>
+        <v>1004|10;1018|20</v>
       </c>
       <c r="G14" s="2">
         <v>60</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2">
         <v>1004</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>10</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="L14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="2">
         <v>1018</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>20</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P14" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>1011</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1019|20;-1|10000</v>
+        <v>1004|10;1019|20</v>
       </c>
       <c r="G15" s="2">
         <v>60</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2">
         <v>1004</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>10</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="L15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="2">
         <v>1019</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>20</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>1012</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1020|20;-1|10000</v>
+        <v>1004|10;1020|20</v>
       </c>
       <c r="G16" s="2">
         <v>60</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2">
         <v>1004</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>10</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="L16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="2">
         <v>1020</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>20</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="2">
-        <v>10000</v>
-      </c>
     </row>
-    <row r="17" spans="8:8">
-      <c r="H17" s="4"/>
+    <row r="17" spans="9:9">
+      <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="8:8">
-      <c r="H18" s="4"/>
+    <row r="18" spans="9:9">
+      <c r="I18" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A3:H15">
+  <sortState ref="A3:I15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
@@ -198,11 +198,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -221,6 +221,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,7 +249,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,17 +318,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,67 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -333,17 +342,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,7 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,73 +385,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,109 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,17 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,15 +621,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -647,6 +632,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,21 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -697,145 +697,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,7 +1207,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H4"/>
+      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
@@ -198,11 +198,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -220,6 +220,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -228,19 +259,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -249,14 +290,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,63 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -334,37 +357,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,25 +385,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,151 +535,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,15 +596,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,9 +626,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,17 +650,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,13 +674,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,137 +715,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -852,6 +858,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1207,12 +1216,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.55555555555556" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="3" width="10.8796296296296" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
     <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
@@ -1362,8 +1371,8 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2">
-        <v>1001</v>
+      <c r="A5" s="4">
+        <v>100101</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
@@ -1374,17 +1383,17 @@
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="5" t="str">
         <f>J5&amp;"|"&amp;K5&amp;";"&amp;M5&amp;"|"&amp;N5</f>
         <v>1004|10;1005|20</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <v>60</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="5">
         <v>10000</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1407,8 +1416,8 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2">
-        <v>1002</v>
+      <c r="A6" s="5">
+        <v>100201</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>26</v>
@@ -1419,17 +1428,17 @@
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="5" t="str">
         <f t="shared" ref="F6:F16" si="0">J6&amp;"|"&amp;K6&amp;";"&amp;M6&amp;"|"&amp;N6</f>
         <v>1004|10;1008|20</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <v>60</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="5">
         <v>10000</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1452,8 +1461,8 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="2">
-        <v>1003</v>
+      <c r="A7" s="5">
+        <v>100301</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>29</v>
@@ -1464,17 +1473,17 @@
       <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1014|20</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <v>60</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="5">
         <v>10000</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1497,8 +1506,8 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="2">
-        <v>1004</v>
+      <c r="A8" s="5">
+        <v>100401</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>32</v>
@@ -1509,17 +1518,17 @@
       <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1010|10;1011|20</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="5">
         <v>60</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>10000</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1542,8 +1551,8 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2">
-        <v>1005</v>
+      <c r="A9" s="5">
+        <v>100501</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>36</v>
@@ -1554,17 +1563,17 @@
       <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1010|10;1011|20</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <v>60</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>10000</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1587,8 +1596,8 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2">
-        <v>1006</v>
+      <c r="A10" s="5">
+        <v>100601</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>38</v>
@@ -1599,17 +1608,17 @@
       <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1010|10;1011|20</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <v>60</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="5">
         <v>10000</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1632,29 +1641,29 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="5">
+        <v>100701</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1015|20</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="5">
         <v>60</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="5">
         <v>10000</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -1677,29 +1686,29 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="2">
-        <v>1008</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="5">
+        <v>100801</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1016|20</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="5">
         <v>60</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="5">
         <v>10000</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1722,29 +1731,29 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="5">
+        <v>100901</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1017|20</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="5">
         <v>60</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>10000</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -1767,29 +1776,29 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="5">
+        <v>101001</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1018|20</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="5">
         <v>60</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <v>10000</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -1801,7 +1810,7 @@
       <c r="K14" s="2">
         <v>10</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="6" t="s">
         <v>51</v>
       </c>
       <c r="M14" s="2">
@@ -1812,29 +1821,29 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="5">
+        <v>101101</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1019|20</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="5">
         <v>60</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <v>10000</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -1846,7 +1855,7 @@
       <c r="K15" s="2">
         <v>10</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="6" t="s">
         <v>54</v>
       </c>
       <c r="M15" s="2">
@@ -1857,29 +1866,29 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="5">
+        <v>101201</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="F16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1020|20</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="5">
         <v>60</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>10000</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1891,7 +1900,7 @@
       <c r="K16" s="2">
         <v>10</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="6" t="s">
         <v>57</v>
       </c>
       <c r="M16" s="2">
@@ -1902,10 +1911,10 @@
       </c>
     </row>
     <row r="17" spans="9:9">
-      <c r="I17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="9:9">
-      <c r="I18" s="5"/>
+      <c r="I18" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A3:I15">

--- a/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Name1</t>
   </si>
   <si>
     <t>Name</t>
@@ -198,11 +201,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -218,6 +221,65 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -228,8 +290,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,74 +339,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -319,9 +346,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,29 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -364,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,7 +388,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,19 +418,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,145 +550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,6 +612,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -626,11 +638,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,45 +689,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -703,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,133 +712,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -859,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1216,7 +1213,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1352,22 +1349,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1375,16 +1372,16 @@
         <v>100101</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>J5&amp;"|"&amp;K5&amp;";"&amp;M5&amp;"|"&amp;N5</f>
@@ -1397,7 +1394,7 @@
         <v>10000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2">
         <v>1004</v>
@@ -1406,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>1005</v>
@@ -1420,16 +1417,16 @@
         <v>100201</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" ref="F6:F16" si="0">J6&amp;"|"&amp;K6&amp;";"&amp;M6&amp;"|"&amp;N6</f>
@@ -1442,7 +1439,7 @@
         <v>10000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2">
         <v>1004</v>
@@ -1451,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="2">
         <v>1008</v>
@@ -1465,16 +1462,16 @@
         <v>100301</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1487,7 +1484,7 @@
         <v>10000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2">
         <v>1004</v>
@@ -1496,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2">
         <v>1014</v>
@@ -1510,16 +1507,16 @@
         <v>100401</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1532,7 +1529,7 @@
         <v>10000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="2">
         <v>1010</v>
@@ -1541,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2">
         <v>1011</v>
@@ -1555,16 +1552,16 @@
         <v>100501</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1577,7 +1574,7 @@
         <v>10000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" s="2">
         <v>1010</v>
@@ -1586,7 +1583,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" s="2">
         <v>1011</v>
@@ -1600,16 +1597,16 @@
         <v>100601</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1622,7 +1619,7 @@
         <v>10000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2">
         <v>1010</v>
@@ -1631,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2">
         <v>1011</v>
@@ -1645,16 +1642,16 @@
         <v>100701</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1667,7 +1664,7 @@
         <v>10000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2">
         <v>1004</v>
@@ -1676,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M11" s="2">
         <v>1015</v>
@@ -1690,16 +1687,16 @@
         <v>100801</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1712,7 +1709,7 @@
         <v>10000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J12" s="2">
         <v>1004</v>
@@ -1721,7 +1718,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M12" s="2">
         <v>1016</v>
@@ -1735,16 +1732,16 @@
         <v>100901</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1757,7 +1754,7 @@
         <v>10000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="2">
         <v>1004</v>
@@ -1766,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="2">
         <v>1017</v>
@@ -1780,16 +1777,16 @@
         <v>101001</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1802,7 +1799,7 @@
         <v>10000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2">
         <v>1004</v>
@@ -1811,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" s="2">
         <v>1018</v>
@@ -1825,16 +1822,16 @@
         <v>101101</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1847,7 +1844,7 @@
         <v>10000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J15" s="2">
         <v>1004</v>
@@ -1856,7 +1853,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="2">
         <v>1019</v>
@@ -1870,16 +1867,16 @@
         <v>101201</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1892,7 +1889,7 @@
         <v>10000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J16" s="2">
         <v>1004</v>
@@ -1901,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M16" s="2">
         <v>1020</v>

--- a/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -25,9 +25,6 @@
     <t>名称</t>
   </si>
   <si>
-    <t>贴图</t>
-  </si>
-  <si>
     <t>说明</t>
   </si>
   <si>
@@ -67,12 +64,6 @@
     <t>Name1</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SpriteName</t>
-  </si>
-  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>刀类1</t>
   </si>
   <si>
-    <t>Weapon1</t>
-  </si>
-  <si>
     <t>A great piece of equipment</t>
   </si>
   <si>
@@ -103,27 +91,18 @@
     <t>枪类1</t>
   </si>
   <si>
-    <t>Weapon2</t>
-  </si>
-  <si>
     <t>火药</t>
   </si>
   <si>
     <t>法杖1</t>
   </si>
   <si>
-    <t>Weapon3</t>
-  </si>
-  <si>
     <t>黑水晶</t>
   </si>
   <si>
     <t>头盔1</t>
   </si>
   <si>
-    <t>Armor1</t>
-  </si>
-  <si>
     <t>皮革</t>
   </si>
   <si>
@@ -133,64 +112,40 @@
     <t>皮甲1</t>
   </si>
   <si>
-    <t>Armor2</t>
-  </si>
-  <si>
     <t>披风1</t>
   </si>
   <si>
-    <t>Armor3</t>
-  </si>
-  <si>
     <t>头环1</t>
   </si>
   <si>
-    <t>Jewelry1</t>
-  </si>
-  <si>
     <t>红宝石</t>
   </si>
   <si>
     <t>戒指1</t>
   </si>
   <si>
-    <t>Jewelry2</t>
-  </si>
-  <si>
     <t>紫宝石</t>
   </si>
   <si>
     <t>护符1</t>
   </si>
   <si>
-    <t>Jewelry3</t>
-  </si>
-  <si>
     <t>黑宝石</t>
   </si>
   <si>
     <t>耳环1</t>
   </si>
   <si>
-    <t>Jewelry4</t>
-  </si>
-  <si>
     <t>珊瑚</t>
   </si>
   <si>
     <t>护腕1</t>
   </si>
   <si>
-    <t>Jewelry5</t>
-  </si>
-  <si>
     <t>珍珠</t>
   </si>
   <si>
     <t>纹章1</t>
-  </si>
-  <si>
-    <t>Jewelry6</t>
   </si>
   <si>
     <t>琥珀</t>
@@ -201,11 +156,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -224,6 +179,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -239,13 +201,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +223,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -299,18 +269,48 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,51 +321,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -388,31 +343,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,151 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,6 +553,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -608,21 +578,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,17 +596,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,151 +638,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,26 +1163,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.8796296296296" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="8" width="19.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="10.8796296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,683 +1189,587 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>100101</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>H5&amp;"|"&amp;I5&amp;";"&amp;K5&amp;"|"&amp;L5</f>
+        <v>1004|10;1005|20</v>
+      </c>
+      <c r="E5" s="5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1004</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>J5&amp;"|"&amp;K5&amp;";"&amp;M5&amp;"|"&amp;N5</f>
-        <v>1004|10;1005|20</v>
-      </c>
-      <c r="G5" s="5">
-        <v>60</v>
-      </c>
-      <c r="H5" s="5">
-        <v>10000</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1004</v>
-      </c>
       <c r="K5" s="2">
-        <v>10</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="2">
         <v>1005</v>
       </c>
-      <c r="N5" s="2">
+      <c r="L5" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:12">
       <c r="A6" s="5">
         <v>100201</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" ref="D6:D16" si="0">H6&amp;"|"&amp;I6&amp;";"&amp;K6&amp;"|"&amp;L6</f>
+        <v>1004|10;1008|20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>60</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1004</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="str">
-        <f t="shared" ref="F6:F16" si="0">J6&amp;"|"&amp;K6&amp;";"&amp;M6&amp;"|"&amp;N6</f>
-        <v>1004|10;1008|20</v>
-      </c>
-      <c r="G6" s="5">
-        <v>60</v>
-      </c>
-      <c r="H6" s="5">
-        <v>10000</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1004</v>
-      </c>
       <c r="K6" s="2">
-        <v>10</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="2">
         <v>1008</v>
       </c>
-      <c r="N6" s="2">
+      <c r="L6" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:12">
       <c r="A7" s="5">
         <v>100301</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="str">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1014|20</v>
       </c>
-      <c r="G7" s="5">
+      <c r="E7" s="5">
         <v>60</v>
       </c>
-      <c r="H7" s="5">
+      <c r="F7" s="5">
         <v>10000</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2">
         <v>1004</v>
       </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K7" s="2">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="2">
         <v>1014</v>
       </c>
-      <c r="N7" s="2">
+      <c r="L7" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:12">
       <c r="A8" s="5">
         <v>100401</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="str">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1010|10;1011|20</v>
       </c>
-      <c r="G8" s="5">
+      <c r="E8" s="5">
         <v>60</v>
       </c>
-      <c r="H8" s="5">
+      <c r="F8" s="5">
         <v>10000</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2">
         <v>1010</v>
       </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K8" s="2">
-        <v>10</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="2">
         <v>1011</v>
       </c>
-      <c r="N8" s="2">
+      <c r="L8" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:12">
       <c r="A9" s="5">
         <v>100501</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="str">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1010|10;1011|20</v>
       </c>
-      <c r="G9" s="5">
+      <c r="E9" s="5">
         <v>60</v>
       </c>
-      <c r="H9" s="5">
+      <c r="F9" s="5">
         <v>10000</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2">
         <v>1010</v>
       </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K9" s="2">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="2">
         <v>1011</v>
       </c>
-      <c r="N9" s="2">
+      <c r="L9" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:12">
       <c r="A10" s="5">
         <v>100601</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5" t="str">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1010|10;1011|20</v>
       </c>
-      <c r="G10" s="5">
+      <c r="E10" s="5">
         <v>60</v>
       </c>
-      <c r="H10" s="5">
+      <c r="F10" s="5">
         <v>10000</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2">
         <v>1010</v>
       </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K10" s="2">
-        <v>10</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="2">
         <v>1011</v>
       </c>
-      <c r="N10" s="2">
+      <c r="L10" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:12">
       <c r="A11" s="5">
         <v>100701</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1015|20</v>
       </c>
-      <c r="G11" s="5">
+      <c r="E11" s="5">
         <v>60</v>
       </c>
-      <c r="H11" s="5">
+      <c r="F11" s="5">
         <v>10000</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2">
         <v>1004</v>
       </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K11" s="2">
-        <v>10</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="2">
         <v>1015</v>
       </c>
-      <c r="N11" s="2">
+      <c r="L11" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:12">
       <c r="A12" s="5">
         <v>100801</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1016|20</v>
       </c>
-      <c r="G12" s="5">
+      <c r="E12" s="5">
         <v>60</v>
       </c>
-      <c r="H12" s="5">
+      <c r="F12" s="5">
         <v>10000</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2">
         <v>1004</v>
       </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="K12" s="2">
-        <v>10</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="2">
         <v>1016</v>
       </c>
-      <c r="N12" s="2">
+      <c r="L12" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:12">
       <c r="A13" s="5">
         <v>100901</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1017|20</v>
       </c>
-      <c r="G13" s="5">
+      <c r="E13" s="5">
         <v>60</v>
       </c>
-      <c r="H13" s="5">
+      <c r="F13" s="5">
         <v>10000</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2">
         <v>1004</v>
       </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K13" s="2">
-        <v>10</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="2">
         <v>1017</v>
       </c>
-      <c r="N13" s="2">
+      <c r="L13" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:12">
       <c r="A14" s="5">
         <v>101001</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1018|20</v>
       </c>
-      <c r="G14" s="5">
+      <c r="E14" s="5">
         <v>60</v>
       </c>
-      <c r="H14" s="5">
+      <c r="F14" s="5">
         <v>10000</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2">
         <v>1004</v>
       </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="K14" s="2">
-        <v>10</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="2">
         <v>1018</v>
       </c>
-      <c r="N14" s="2">
+      <c r="L14" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:12">
       <c r="A15" s="5">
         <v>101101</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1019|20</v>
       </c>
-      <c r="G15" s="5">
+      <c r="E15" s="5">
         <v>60</v>
       </c>
-      <c r="H15" s="5">
+      <c r="F15" s="5">
         <v>10000</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2">
         <v>1004</v>
       </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="K15" s="2">
-        <v>10</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="2">
         <v>1019</v>
       </c>
-      <c r="N15" s="2">
+      <c r="L15" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:12">
       <c r="A16" s="5">
         <v>101201</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="5" t="str">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>1004|10;1020|20</v>
       </c>
-      <c r="G16" s="5">
+      <c r="E16" s="5">
         <v>60</v>
       </c>
-      <c r="H16" s="5">
+      <c r="F16" s="5">
         <v>10000</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="G16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="2">
         <v>1004</v>
       </c>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="K16" s="2">
-        <v>10</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="2">
         <v>1020</v>
       </c>
-      <c r="N16" s="2">
+      <c r="L16" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
-      <c r="I17" s="6"/>
+    <row r="17" spans="7:7">
+      <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="9:9">
-      <c r="I18" s="6"/>
+    <row r="18" spans="7:7">
+      <c r="G18" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A3:I15">

--- a/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
+++ b/Tables/Sources/gameplay/Synthesis/EquipmentSynthesisConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>A great piece of equipment</t>
   </si>
   <si>
-    <t>铁</t>
-  </si>
-  <si>
     <t>钢</t>
   </si>
   <si>
@@ -103,16 +100,19 @@
     <t>头盔1</t>
   </si>
   <si>
-    <t>皮革</t>
-  </si>
-  <si>
     <t>精皮革</t>
   </si>
   <si>
     <t>皮甲1</t>
   </si>
   <si>
+    <t>精亚麻</t>
+  </si>
+  <si>
     <t>披风1</t>
+  </si>
+  <si>
+    <t>黄铜</t>
   </si>
   <si>
     <t>头环1</t>
@@ -158,9 +158,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -179,14 +179,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,10 +207,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,6 +269,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -222,78 +300,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,14 +321,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -343,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,16 +553,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,9 +593,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,21 +622,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,27 +649,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,133 +667,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,12 +1163,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1181,7 +1181,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,17 +1209,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,17 +1238,8 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:6">
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:6">
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1297,7 +1279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>100101</v>
       </c>
@@ -1308,8 +1290,8 @@
         <v>20</v>
       </c>
       <c r="D5" s="5" t="str">
-        <f>H5&amp;"|"&amp;I5&amp;";"&amp;K5&amp;"|"&amp;L5</f>
-        <v>1004|10;1005|20</v>
+        <f>H5&amp;"|"&amp;I5</f>
+        <v>1005|20</v>
       </c>
       <c r="E5" s="5">
         <v>60</v>
@@ -1321,34 +1303,25 @@
         <v>21</v>
       </c>
       <c r="H5" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1005</v>
-      </c>
-      <c r="L5" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>100201</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="5" t="str">
-        <f t="shared" ref="D6:D16" si="0">H6&amp;"|"&amp;I6&amp;";"&amp;K6&amp;"|"&amp;L6</f>
-        <v>1004|10;1008|20</v>
+        <f t="shared" ref="D6:D16" si="0">H6&amp;"|"&amp;I6</f>
+        <v>1008|20</v>
       </c>
       <c r="E6" s="5">
         <v>60</v>
@@ -1357,37 +1330,28 @@
         <v>10000</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1008</v>
-      </c>
-      <c r="L6" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>100301</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1014|20</v>
+        <v>1014|20</v>
       </c>
       <c r="E7" s="5">
         <v>60</v>
@@ -1396,37 +1360,28 @@
         <v>10000</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1014</v>
-      </c>
-      <c r="L7" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>100401</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1010|10;1011|20</v>
+        <v>1011|20</v>
       </c>
       <c r="E8" s="5">
         <v>60</v>
@@ -1435,37 +1390,28 @@
         <v>10000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1011</v>
-      </c>
-      <c r="L8" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:9">
       <c r="A9" s="5">
         <v>100501</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1010|10;1011|20</v>
+        <v>1049|20</v>
       </c>
       <c r="E9" s="5">
         <v>60</v>
@@ -1474,37 +1420,28 @@
         <v>10000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2">
-        <v>1010</v>
+        <v>1049</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1011</v>
-      </c>
-      <c r="L9" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:9">
       <c r="A10" s="5">
         <v>100601</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1010|10;1011|20</v>
+        <v>1052|20</v>
       </c>
       <c r="E10" s="5">
         <v>60</v>
@@ -1513,25 +1450,16 @@
         <v>10000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2">
-        <v>1010</v>
+        <v>1052</v>
       </c>
       <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1011</v>
-      </c>
-      <c r="L10" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:9">
       <c r="A11" s="5">
         <v>100701</v>
       </c>
@@ -1543,7 +1471,7 @@
       </c>
       <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1015|20</v>
+        <v>1015|20</v>
       </c>
       <c r="E11" s="5">
         <v>60</v>
@@ -1552,25 +1480,16 @@
         <v>10000</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1015</v>
-      </c>
-      <c r="L11" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:9">
       <c r="A12" s="5">
         <v>100801</v>
       </c>
@@ -1582,7 +1501,7 @@
       </c>
       <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1016|20</v>
+        <v>1016|20</v>
       </c>
       <c r="E12" s="5">
         <v>60</v>
@@ -1591,25 +1510,16 @@
         <v>10000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H12" s="2">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1016</v>
-      </c>
-      <c r="L12" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:9">
       <c r="A13" s="5">
         <v>100901</v>
       </c>
@@ -1621,7 +1531,7 @@
       </c>
       <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1017|20</v>
+        <v>1017|20</v>
       </c>
       <c r="E13" s="5">
         <v>60</v>
@@ -1630,25 +1540,16 @@
         <v>10000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1017</v>
-      </c>
-      <c r="L13" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:9">
       <c r="A14" s="5">
         <v>101001</v>
       </c>
@@ -1660,7 +1561,7 @@
       </c>
       <c r="D14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1018|20</v>
+        <v>1018|20</v>
       </c>
       <c r="E14" s="5">
         <v>60</v>
@@ -1668,26 +1569,17 @@
       <c r="F14" s="5">
         <v>10000</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>21</v>
+      <c r="G14" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H14" s="2">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1018</v>
-      </c>
-      <c r="L14" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:9">
       <c r="A15" s="5">
         <v>101101</v>
       </c>
@@ -1699,7 +1591,7 @@
       </c>
       <c r="D15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1019|20</v>
+        <v>1019|20</v>
       </c>
       <c r="E15" s="5">
         <v>60</v>
@@ -1707,26 +1599,17 @@
       <c r="F15" s="5">
         <v>10000</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
+      <c r="G15" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H15" s="2">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="I15" s="2">
-        <v>10</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1019</v>
-      </c>
-      <c r="L15" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:9">
       <c r="A16" s="5">
         <v>101201</v>
       </c>
@@ -1738,7 +1621,7 @@
       </c>
       <c r="D16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1004|10;1020|20</v>
+        <v>1020|20</v>
       </c>
       <c r="E16" s="5">
         <v>60</v>
@@ -1746,30 +1629,15 @@
       <c r="F16" s="5">
         <v>10000</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
+      <c r="G16" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="H16" s="2">
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="I16" s="2">
-        <v>10</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1020</v>
-      </c>
-      <c r="L16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="7:7">
-      <c r="G18" s="6"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A3:I15">
